--- a/airhockey/airhockey/speedtest_Auswertung2.xlsx
+++ b/airhockey/airhockey/speedtest_Auswertung2.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="speedtest" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1062,11 +1063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="8853696"/>
-        <c:axId val="8853120"/>
+        <c:axId val="619013248"/>
+        <c:axId val="619016128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="8853696"/>
+        <c:axId val="619013248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1076,12 +1077,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8853120"/>
+        <c:crossAx val="619016128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="8853120"/>
+        <c:axId val="619016128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1093,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8853696"/>
+        <c:crossAx val="619013248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1365,11 +1366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124852416"/>
-        <c:axId val="124851840"/>
+        <c:axId val="619017856"/>
+        <c:axId val="619018432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124852416"/>
+        <c:axId val="619017856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1379,12 +1380,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124851840"/>
+        <c:crossAx val="619018432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124851840"/>
+        <c:axId val="619018432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1395,7 +1396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124852416"/>
+        <c:crossAx val="619017856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1663,11 +1664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123514240"/>
-        <c:axId val="123513664"/>
+        <c:axId val="7454720"/>
+        <c:axId val="7455296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123514240"/>
+        <c:axId val="7454720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,12 +1678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123513664"/>
+        <c:crossAx val="7455296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123513664"/>
+        <c:axId val="7455296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1693,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123514240"/>
+        <c:crossAx val="7454720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1961,11 +1962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="123517696"/>
-        <c:axId val="123516544"/>
+        <c:axId val="7457024"/>
+        <c:axId val="7457600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123517696"/>
+        <c:axId val="7457024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,12 +1976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123516544"/>
+        <c:crossAx val="7457600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="123516544"/>
+        <c:axId val="7457600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1991,7 +1992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123517696"/>
+        <c:crossAx val="7457024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2427,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A131" sqref="A131:F158"/>
     </sheetView>
   </sheetViews>
@@ -5152,7 +5153,7 @@
         <v>5.70337772369E-2</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F131:F158" si="2">SQRT((A132-C132)^2+(B132-D132)^2)</f>
+        <f t="shared" ref="F132:F158" si="2">SQRT((A132-C132)^2+(B132-D132)^2)</f>
         <v>0</v>
       </c>
     </row>
